--- a/CrossGameServer/Resources/Tables/Main/ItemMapper.xlsx
+++ b/CrossGameServer/Resources/Tables/Main/ItemMapper.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectItems\C#Items\CrossGameServer\CrossGameServer\CrossGameServer\Resources\Tables\Main\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectItems\C#Items\CrossGameServer\CrossGameServer\CrossGameServer\bin\Release\net8.0\publish\Resources\Tables\Main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{671235E2-5059-405B-81D6-A4FBD2CD2263}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{031E90B4-A087-4EED-99B6-E950BDEE4701}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2895" yWindow="10410" windowWidth="34965" windowHeight="10050" xr2:uid="{6A30138F-BD26-3A4D-8B84-2A827BDCBD43}"/>
+    <workbookView xWindow="5985" yWindow="7950" windowWidth="34965" windowHeight="10050" xr2:uid="{6A30138F-BD26-3A4D-8B84-2A827BDCBD43}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="82">
   <si>
     <t>##var</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -159,6 +159,172 @@
   </si>
   <si>
     <t>int?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>minecraft:lava_bucket</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LavaBucket</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dirt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Glass</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>minecraft:cobblestone</t>
+  </si>
+  <si>
+    <t>StoneBlock</t>
+  </si>
+  <si>
+    <t>SlitBlock</t>
+  </si>
+  <si>
+    <t>SandBlock</t>
+  </si>
+  <si>
+    <t>RedBrick</t>
+  </si>
+  <si>
+    <t>Glass</t>
+  </si>
+  <si>
+    <t>IceBlock</t>
+  </si>
+  <si>
+    <t>Obsidian</t>
+  </si>
+  <si>
+    <t>Book</t>
+  </si>
+  <si>
+    <t>Bookcase</t>
+  </si>
+  <si>
+    <t>Torch</t>
+  </si>
+  <si>
+    <t>DemonTorch</t>
+  </si>
+  <si>
+    <t>ClayBlock</t>
+  </si>
+  <si>
+    <t>Cactus</t>
+  </si>
+  <si>
+    <t>Pumpkin</t>
+  </si>
+  <si>
+    <t>Vine</t>
+  </si>
+  <si>
+    <t>Snowball</t>
+  </si>
+  <si>
+    <t>Feather</t>
+  </si>
+  <si>
+    <t>minecraft:dirt</t>
+  </si>
+  <si>
+    <t>Dirt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	
+SnowBlock</t>
+  </si>
+  <si>
+    <t>minecraft:gravel</t>
+  </si>
+  <si>
+    <t>minecraft:sand</t>
+  </si>
+  <si>
+    <t>minecraft:brick_block</t>
+  </si>
+  <si>
+    <t>minecraft:glass</t>
+  </si>
+  <si>
+    <t>minecraft:snow_block</t>
+  </si>
+  <si>
+    <t>minecraft:ice</t>
+  </si>
+  <si>
+    <t>minecraft:obsidian</t>
+  </si>
+  <si>
+    <t>minecraft:book</t>
+  </si>
+  <si>
+    <t>minecraft:bookshelf</t>
+  </si>
+  <si>
+    <t>minecraft:torch</t>
+  </si>
+  <si>
+    <t>minecraft:soul_torch</t>
+  </si>
+  <si>
+    <t>minecraft:clay</t>
+  </si>
+  <si>
+    <t>minecraft:cactus</t>
+  </si>
+  <si>
+    <t>minecraft:pumpkin</t>
+  </si>
+  <si>
+    <t>minecraft:vine</t>
+  </si>
+  <si>
+    <t>minecraft:snowball</t>
+  </si>
+  <si>
+    <t>minecraft:feather</t>
+  </si>
+  <si>
+    <t>Cobblestone</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gravel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sand</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BrickBlock</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SnowBlock</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ice</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Clay</t>
+  </si>
+  <si>
+    <t>SoulTorch</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bookshelf</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -559,8 +725,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73CFCCA6-E1E5-354C-BF36-2086D2363810}">
   <dimension ref="A1:L33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="27.75" x14ac:dyDescent="0.25"/>
@@ -796,11 +962,22 @@
     </row>
     <row r="9" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
+      <c r="B9" s="2" t="str">
+        <f>E9</f>
+        <v>LavaBucket</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" s="2">
+        <v>1</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F9" s="2">
+        <v>1</v>
+      </c>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
@@ -810,11 +987,21 @@
     </row>
     <row r="10" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
+      <c r="B10" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D10" s="2">
+        <v>1</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="F10" s="2">
+        <v>1</v>
+      </c>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
@@ -824,11 +1011,21 @@
     </row>
     <row r="11" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
+      <c r="B11" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11" s="2">
+        <v>1</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F11" s="2">
+        <v>1</v>
+      </c>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
@@ -838,11 +1035,21 @@
     </row>
     <row r="12" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
+      <c r="B12" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D12" s="2">
+        <v>1</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F12" s="2">
+        <v>1</v>
+      </c>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
@@ -852,11 +1059,21 @@
     </row>
     <row r="13" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
+      <c r="B13" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D13" s="2">
+        <v>1</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F13" s="2">
+        <v>1</v>
+      </c>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
@@ -866,11 +1083,21 @@
     </row>
     <row r="14" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
+      <c r="B14" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D14" s="2">
+        <v>1</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F14" s="2">
+        <v>1</v>
+      </c>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
@@ -880,11 +1107,21 @@
     </row>
     <row r="15" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
+      <c r="B15" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D15" s="2">
+        <v>1</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F15" s="2">
+        <v>1</v>
+      </c>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
@@ -894,11 +1131,21 @@
     </row>
     <row r="16" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
+      <c r="B16" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D16" s="2">
+        <v>1</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F16" s="2">
+        <v>1</v>
+      </c>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
@@ -908,11 +1155,21 @@
     </row>
     <row r="17" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
+      <c r="B17" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D17" s="2">
+        <v>1</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F17" s="2">
+        <v>1</v>
+      </c>
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
@@ -922,11 +1179,21 @@
     </row>
     <row r="18" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
+      <c r="B18" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D18" s="2">
+        <v>1</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F18" s="2">
+        <v>1</v>
+      </c>
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
@@ -936,11 +1203,21 @@
     </row>
     <row r="19" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
+      <c r="B19" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D19" s="2">
+        <v>1</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F19" s="2">
+        <v>1</v>
+      </c>
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
       <c r="I19" s="2"/>
@@ -950,11 +1227,21 @@
     </row>
     <row r="20" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
+      <c r="B20" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D20" s="2">
+        <v>1</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" s="2">
+        <v>1</v>
+      </c>
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
       <c r="I20" s="2"/>
@@ -964,11 +1251,21 @@
     </row>
     <row r="21" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
+      <c r="B21" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D21" s="2">
+        <v>1</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F21" s="2">
+        <v>1</v>
+      </c>
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
       <c r="I21" s="2"/>
@@ -978,11 +1275,21 @@
     </row>
     <row r="22" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
+      <c r="B22" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D22" s="2">
+        <v>1</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F22" s="2">
+        <v>1</v>
+      </c>
       <c r="G22" s="2"/>
       <c r="H22" s="2"/>
       <c r="I22" s="2"/>
@@ -992,11 +1299,21 @@
     </row>
     <row r="23" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
+      <c r="B23" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D23" s="2">
+        <v>1</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F23" s="2">
+        <v>1</v>
+      </c>
       <c r="G23" s="2"/>
       <c r="H23" s="2"/>
       <c r="I23" s="2"/>
@@ -1006,11 +1323,21 @@
     </row>
     <row r="24" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
+      <c r="B24" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D24" s="2">
+        <v>1</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F24" s="2">
+        <v>1</v>
+      </c>
       <c r="G24" s="2"/>
       <c r="H24" s="2"/>
       <c r="I24" s="2"/>
@@ -1020,11 +1347,21 @@
     </row>
     <row r="25" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2"/>
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
+      <c r="B25" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D25" s="2">
+        <v>1</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F25" s="2">
+        <v>1</v>
+      </c>
       <c r="G25" s="2"/>
       <c r="H25" s="2"/>
       <c r="I25" s="2"/>
@@ -1034,11 +1371,21 @@
     </row>
     <row r="26" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2"/>
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
+      <c r="B26" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D26" s="2">
+        <v>1</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F26" s="2">
+        <v>1</v>
+      </c>
       <c r="G26" s="2"/>
       <c r="H26" s="2"/>
       <c r="I26" s="2"/>
@@ -1048,11 +1395,21 @@
     </row>
     <row r="27" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2"/>
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
+      <c r="B27" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D27" s="2">
+        <v>1</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F27" s="2">
+        <v>1</v>
+      </c>
       <c r="G27" s="2"/>
       <c r="H27" s="2"/>
       <c r="I27" s="2"/>
@@ -1062,11 +1419,21 @@
     </row>
     <row r="28" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2"/>
-      <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
+      <c r="B28" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D28" s="2">
+        <v>1</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F28" s="2">
+        <v>1</v>
+      </c>
       <c r="G28" s="2"/>
       <c r="H28" s="2"/>
       <c r="I28" s="2"/>
@@ -1077,10 +1444,6 @@
     <row r="29" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
       <c r="G29" s="2"/>
       <c r="H29" s="2"/>
       <c r="I29" s="2"/>
@@ -1090,8 +1453,14 @@
     </row>
     <row r="30" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="31" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="32" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="33" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="32" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+    </row>
+    <row r="33" spans="4:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D33" s="2"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
